--- a/Doc/기획문서2_170601.xlsx
+++ b/Doc/기획문서2_170601.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-435" yWindow="135" windowWidth="26955" windowHeight="13020" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="-435" yWindow="135" windowWidth="26955" windowHeight="13020" tabRatio="756" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="아이템능력치부여" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="964">
   <si>
     <t>아이템테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2340,10 +2340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1개5회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파볼7개
 각얼음6개
 짱돌3개</t>
@@ -2399,10 +2395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30초딜링 = 169%*30 = 5070%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시너지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2411,20 +2403,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레벨증가 1
-시너지가 없기떄문에 시너지있는 전체3000%의 2배정도 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격수단에 종속적인것들은 적절하게 썼을때(그 공격수단이 가장강할시기)를 기준으로의 효과다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5426%(전체, 타이밍무관)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5070%(전체)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2501,43 +2480,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>평타1방 평균공격데미지169%*5
-845%*5회 = 4225%
-845%*1묶음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>효과계산공식(크리포함데미지는170%로계산)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3400%(전체, 타이밍무관)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expx2 = (+100%)
-170%*20초 = 3400(전체)
-단 전체효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 연구중인 가장짧은 연구의 시간 -10초(계산용기준-37.5초)
-(자원소모없음)
-20350%(37.5초) -&gt; 5426%(10초)
-시너지가 없기떄문에 시너지있는 전체3400%의 2배정도 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.5*4 = 150초 = 리서치1개공짜
-(단 시간계수 0.25, 가격계수4인 초반에는 1개만 지급)
-50층에서 1레벨업에 60초딜링기준으로 난이도를 잡고있으므로, 평균 30초에 1레벨업
-1리서치 = 5레벨업 = 150초딜링
-= 169%*150 = 20350%(전체딜링)
-=연구1초당 542.66%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2577,18 +2524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파이어볼675%*5.6초
-각얼음800%*6.4초
-짱돌1550%*5초
-지지직1050*4.9초
-물폭탄550%*5.5초
-흙덩이2550*6.1초
-바람바람1550*5초
-눈덩이1300*6초
-마그마2550*6.1초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1개아이템효과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2597,78 +2532,1521 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5426/4 %</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3780%
-5120%
-7750%
-5145%
-3025%
-15555%
-7750%
-7800%
-15555%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파볼4
+    <t>용사레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1에서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5까지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술레벨0/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원0/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도0/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동시연구2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭크보너스3/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구시간-3/-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(가격은비싸짐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP획득10/50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불레벨0/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음레벨0/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뺀다- 시간왜곡등의 업그레이드에도 영향미칠수있고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 절반능력치니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 묶는다해도 지능등과 경쟁한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌레벨0/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘0/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능0/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비아이템에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본스텟말고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유능력치로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술레벨+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불원소레벨+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등이 붙는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법부여의 종류를 많이축소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element는 증뎀, 크리, 크리뎀위주로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입(신)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가소모품확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불원소</t>
+  </si>
+  <si>
+    <t>얼음원소</t>
+  </si>
+  <si>
+    <t>바위원소</t>
+  </si>
+  <si>
+    <t>전기원소</t>
+  </si>
+  <si>
+    <t>물원소</t>
+  </si>
+  <si>
+    <t>대지원소</t>
+  </si>
+  <si>
+    <t>바람원소</t>
+  </si>
+  <si>
+    <t>눈원소</t>
+  </si>
+  <si>
+    <t>용암원소</t>
+  </si>
+  <si>
+    <t>전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리계열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늘 평탄하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능,1마법계열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유틸계열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임보상이 증가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2레벨</t>
+  </si>
+  <si>
+    <t>3레벨</t>
+  </si>
+  <si>
+    <t>4레벨</t>
+  </si>
+  <si>
+    <t>5레벨</t>
+  </si>
+  <si>
+    <t>6레벨</t>
+  </si>
+  <si>
+    <t>7레벨</t>
+  </si>
+  <si>
+    <t>8레벨</t>
+  </si>
+  <si>
+    <t>9레벨</t>
+  </si>
+  <si>
+    <t>10레벨</t>
+  </si>
+  <si>
+    <t>12레벨</t>
+  </si>
+  <si>
+    <t>13레벨</t>
+  </si>
+  <si>
+    <t>14레벨</t>
+  </si>
+  <si>
+    <t>15레벨</t>
+  </si>
+  <si>
+    <t>16레벨</t>
+  </si>
+  <si>
+    <t>17레벨</t>
+  </si>
+  <si>
+    <t>18레벨</t>
+  </si>
+  <si>
+    <t>19레벨</t>
+  </si>
+  <si>
+    <t>20레벨</t>
+  </si>
+  <si>
+    <t>21레벨</t>
+  </si>
+  <si>
+    <t>22레벨</t>
+  </si>
+  <si>
+    <t>23레벨</t>
+  </si>
+  <si>
+    <t>24레벨</t>
+  </si>
+  <si>
+    <t>25레벨</t>
+  </si>
+  <si>
+    <t>해금조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈
+얼음
+물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불
+바람
+전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지
+돌
+용암</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어스퀘이커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술스택
+검술공속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불레벨+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불레벨+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술레벨+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술레벨+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술레벨+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭크보너스+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가상자+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스메이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어메이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드루이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불레벨+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불레벨+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불레벨+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어메이지5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스메이지5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불
+전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌
+대지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토석인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음
+물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수빙사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기레벨+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기레벨+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기레벨+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기레벨+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기레벨+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원+1000</t>
+  </si>
+  <si>
+    <t>초기자원+1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원+300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원+500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원+150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원+750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람레벨+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람레벨+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람레벨+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP100,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP10,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP1,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이터레벨5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그레벨5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해금+즉시구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험가레벨5,업적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람레벨+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본보유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술스택+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술스택+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쌔신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모품드랍+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레져헌터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술스택+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술스택+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원+1000
+불레벨+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원+1000
+불레벨+5
+전기레벨+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람레벨+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종능력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블공격+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블공격+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블공격+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블공격+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원+1000
+불레벨+5
+전기레벨+5
+바람레벨+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술레벨+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원+1000
+검술레벨+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닌자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블공격+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술스택+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레인져</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레인져레벨5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원+1000
+검술레벨+5
+더블공격+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원+1000
+검술레벨+5
+더블공격+5
+검술스택+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원+1000
+이동속도+100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원+1000
+이속+100%
+소모품드랍+25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분기가없는데
+분기UI를 둘 필요가있나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 직업1개를 선택하면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 직업들의 SP가격이 다 비싸짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP초기화를 하면 직업선택도 처음부터할수있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 2개이상의 직업을 선택하는것이 너무 힘듬.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레져헌터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원1000</t>
+  </si>
+  <si>
+    <t>검술스택5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모품드랍율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭크보너스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬기능습득,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콤보공격(갈수록세짐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기습(초탄데미지높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분신(2번공격)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바바리안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음진화1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음진화2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어메이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스메이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어일렉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워터파이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원+1000
+이동속도+100%
+소모품드랍+25
+랭크보너스+12
+추가상자+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젬드랍율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈드마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스노우위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어스퀘이커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썬더볼트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메테오라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술density</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레density</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비를 불element로 몰빵하면 검술레벨5=불레벨5 에 가깝게 된다. 그렇지만 100%는 아닌데다가, 배우는시기가 다르므로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재로선 element쪽에 레벨업능력치를 많이 배분해볼수밖에없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스톤마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어스퀘이커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드라이어드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헌터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncreaseEXPXH150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선행직업필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선행레벨만필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜렉터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본비중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비로인한강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사로갔을시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불전문으로갔을시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효율1배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성으로인한강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효율1배(200%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효율1배(10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효율3배(+230%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레멘탈러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총비중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술가일때만 enchant배움.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레멘탈러일때는 불, 전기, 바람 원소에 한하여 enchant와 비슷한 리서치가 생김.(3개씩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어마스터러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어인첸트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어인첸트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어인첸트3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급검술가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불인첸트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물인첸트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위인첸트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주력기정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기직업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일루션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주력기술들레벨+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술인첸트오픈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3인첸트오픈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위즈덤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인첸트 연구속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주력기술 인첸트 연구속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소드마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알케미스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술랩업가격인하10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주력기술랩업가격인하10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주력기술 기습(남은체력많으면 높은데미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마격(기습의 반대 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주력확률2개소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥스어택카운트는 1~3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥스어택카운트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요기술,주요기술/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요기술(절반)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요기술/3(절반/6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30초
+검술은(10초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술의경우 1n~3n 주요엘리멘트다보니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효율이 3배까지 더조흘수있으나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럴땐 어차피 나오는 확률이 1/3 이기때문에 그대로간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요element의갯수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseStat</t>
+  </si>
+  <si>
+    <t>검술전문가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배울시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가소모품1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불원소레벨+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음원소레벨+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위원소레벨+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불원소시작레벨+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음원소시작레벨+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위원소시작레벨+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭크보너스+15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원소시작레벨+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동시연구+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동시연구+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가명성100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기자원+4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격증가율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구속도2배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1개5회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 연구중인 가장짧은 연구의 시간 -10초
+최대 4개지급(-10초~-40초)
+(단 시간계수 0.25, 가격계수4인 초반에는 1개만 지급하다 시간계수가 1되면 4개지급)
+시너지가 없기떄문에 시너지있는 전체2100%의 2배정도 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨증가 1
+시너지가 없기떄문에 시너지있는 전체2100%의 2배정도 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000%로맞춤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평타1방 평균공격데미지5초
+108%*5초 = 540%
+540%*5회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000%맞춤
+극확극피MAX시20000%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5400%
+극확극피MAX시16200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1650%
+2520%
+5000%
+1700%
+2400%
+5040%
+1650%
+2520%
+4950%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파볼3
+2
+1
 3
 2
+1
 3
-5
-1
-2
 2
 용암1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15120%
-15360%
-15500%
-15435%
-15125%
-15555%
-15500%
-15600%
-15555%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dps3배 = (+200%)
-초당공격력 = 170%
+    <t>3300%(부분~절반)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2700%나누기초당110%
+약13초 = 25초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 
+23 
+45 
+15 
+22 
+46 
+15 
+23 
+45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dps2배 = (+100%)
+초당공격력 = 110%
 30초간 추가데미지량
- = +(170%*200%)*30초 = 10200%
+ = +(110%*100%)*30초 =3300
 단 부분~절반의효과1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10200%(부분~절반)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4225%나누기초당300%
-약14초 = 15초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15초
-15초
-25초
-15초
-10초
-50초
-25초
-25초
-50초</t>
+    <t>expx2 = (+100%)
+110%*20초 = 2200(전체)
+단 전체효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200%(전체, 타이밍무관)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50층에서 1레벨업에 30초딜링기준으로 난이도를 잡고있으므로, 평균 30초에 1레벨업
+1리서치 = 5레벨업 = 150초딜링
+= 110%*150 = 16500%(전체딜링)
+리서치는 150초므로 1초감소에 1초딜링효과)
+=연구1초감소당 전체 110%딜링효과
+40초감소시 4400%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4400 / 4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4400%(전체, 타이밍무관)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30초딜링 = 110%*30 = 3300%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3300%(전체)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <t xml:space="preserve">몬스터 레벨에 의해 계산되어 지급
-FromDouble값 * 1 = 부분170% 정도 이므로, coef 100정도하면, 부분 17000%정도
+FromDouble값 * 1 = 부분110% 정도 이므로, coef 100정도하면, 부분 11000%정도
 </t>
     </r>
     <r>
@@ -2682,1395 +4060,22 @@
       </rPr>
       <t>가격손바야뎀</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용사레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1에서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5까지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술레벨0/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원0/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도0/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>both</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동시연구2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랭크보너스3/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구시간-3/-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(가격은비싸짐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP획득10/50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불레벨0/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음레벨0/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뺀다- 시간왜곡등의 업그레이드에도 영향미칠수있고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 절반능력치니까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만약 묶는다해도 지능등과 경쟁한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌레벨0/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>both</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힘0/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지능0/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비아이템에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본스텟말고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유능력치로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술레벨+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불원소레벨+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등이 붙는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법부여의 종류를 많이축소한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element는 증뎀, 크리, 크리뎀위주로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입(신)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Case1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Case2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Case3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Case4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Case5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전문화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모험가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초급마법사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가소모품확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용암</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불원소</t>
-  </si>
-  <si>
-    <t>얼음원소</t>
-  </si>
-  <si>
-    <t>바위원소</t>
-  </si>
-  <si>
-    <t>전기원소</t>
-  </si>
-  <si>
-    <t>물원소</t>
-  </si>
-  <si>
-    <t>대지원소</t>
-  </si>
-  <si>
-    <t>바람원소</t>
-  </si>
-  <si>
-    <t>눈원소</t>
-  </si>
-  <si>
-    <t>용암원소</t>
-  </si>
-  <si>
-    <t>전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급마법사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급마법사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저의선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리계열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>늘 평탄하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지능,1마법계열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유틸계열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임보상이 증가한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모험가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2레벨</t>
-  </si>
-  <si>
-    <t>3레벨</t>
-  </si>
-  <si>
-    <t>4레벨</t>
-  </si>
-  <si>
-    <t>5레벨</t>
-  </si>
-  <si>
-    <t>6레벨</t>
-  </si>
-  <si>
-    <t>7레벨</t>
-  </si>
-  <si>
-    <t>8레벨</t>
-  </si>
-  <si>
-    <t>9레벨</t>
-  </si>
-  <si>
-    <t>10레벨</t>
-  </si>
-  <si>
-    <t>12레벨</t>
-  </si>
-  <si>
-    <t>13레벨</t>
-  </si>
-  <si>
-    <t>14레벨</t>
-  </si>
-  <si>
-    <t>15레벨</t>
-  </si>
-  <si>
-    <t>16레벨</t>
-  </si>
-  <si>
-    <t>17레벨</t>
-  </si>
-  <si>
-    <t>18레벨</t>
-  </si>
-  <si>
-    <t>19레벨</t>
-  </si>
-  <si>
-    <t>20레벨</t>
-  </si>
-  <si>
-    <t>21레벨</t>
-  </si>
-  <si>
-    <t>22레벨</t>
-  </si>
-  <si>
-    <t>23레벨</t>
-  </si>
-  <si>
-    <t>24레벨</t>
-  </si>
-  <si>
-    <t>25레벨</t>
-  </si>
-  <si>
-    <t>해금조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빙술사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정령술사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈
-얼음
-물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불
-바람
-전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대지
-돌
-용암</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어스퀘이커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술스택
-검술공속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불레벨+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불레벨+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술레벨+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술레벨+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술레벨+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랭크보너스+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가상자+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스메이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어메이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드루이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불레벨+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불레벨+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불레벨+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어메이지5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스메이지5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불
-전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌
-대지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토석인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음
-물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수빙사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기레벨+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기레벨+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기레벨+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기레벨+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기레벨+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원+1000</t>
-  </si>
-  <si>
-    <t>초기자원+1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원+300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원+500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원+150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원+750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람레벨+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람레벨+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람레벨+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP100,000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP10,000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP1,000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이터레벨5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그레벨5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해금+즉시구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,000원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모험가레벨5,업적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람레벨+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본보유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술스택+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술스택+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어쌔신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소모품드랍+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트레져헌터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술스택+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술스택+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원+1000
-불레벨+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원+1000
-불레벨+5
-전기레벨+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람레벨+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모험가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종능력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더블공격+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더블공격+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더블공격+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더블공격+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원+1000
-불레벨+5
-전기레벨+5
-바람레벨+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술레벨+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원+1000
-검술레벨+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닌자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더블공격+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술스택+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레인져</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레인져레벨5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원+1000
-검술레벨+5
-더블공격+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원+1000
-검술레벨+5
-더블공격+5
-검술스택+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도+20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원+1000
-이동속도+100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원+1000
-이속+100%
-소모품드랍+25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분기가없는데
-분기UI를 둘 필요가있나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 직업1개를 선택하면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 직업들의 SP가격이 다 비싸짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP초기화를 하면 직업선택도 처음부터할수있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래서 2개이상의 직업을 선택하는것이 너무 힘듬.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트레져헌터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원1000</t>
-  </si>
-  <si>
-    <t>검술스택5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소모품드랍율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가상자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랭크보너스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬기능습득,,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버서커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콤보공격(갈수록세짐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기습(초탄데미지높음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출혈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분신(2번공격)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바바리안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지능+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용암</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음진화1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음진화2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어메이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스메이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어일렉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워터파이어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원+1000
-이동속도+100%
-소모품드랍+25
-랭크보너스+12
-추가상자+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젬드랍율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈드마스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스노우위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어스퀘이커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썬더볼트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메테오라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술density</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레density</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비를 불element로 몰빵하면 검술레벨5=불레벨5 에 가깝게 된다. 그렇지만 100%는 아닌데다가, 배우는시기가 다르므로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재로선 element쪽에 레벨업능력치를 많이 배분해볼수밖에없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스톤마스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어스퀘이커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드라이어드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헌터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던전마스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IncreaseEXPXH150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선행직업필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선행레벨만필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜렉터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본비중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비로인한강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검사로갔을시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불전문으로갔을시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효율1배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특성으로인한강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효율1배(200%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효율1배(10%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효율3배(+230%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레멘탈러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총비중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술가일때만 enchant배움.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레멘탈러일때는 불, 전기, 바람 원소에 한하여 enchant와 비슷한 리서치가 생김.(3개씩)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어마스터러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어인첸트1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어인첸트2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어인첸트3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초급검술가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불인첸트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물인첸트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바위인첸트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주력기정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전문화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기직업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일루션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주력기술들레벨+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술인첸트오픈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3인첸트오픈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위즈덤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더블스택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인첸트 연구속도 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주력기술 인첸트 연구속도 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소드마스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알케미스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술랩업가격인하10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주력기술랩업가격인하10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주력기술 기습(남은체력많으면 높은데미지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마격(기습의 반대 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그랜드마스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주력확률2개소환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맥스어택카운트는 1~3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맥스어택카운트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주요기술,주요기술/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주요기술(절반)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주요기술/3(절반/6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17000%(density1기준)
-첫스테이지의 주요기술density는 4~5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30초
-검술은(10초)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주요기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술의경우 1n~3n 주요엘리멘트다보니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효율이 3배까지 더조흘수있으나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럴땐 어차피 나오는 확률이 1/3 이기때문에 그대로간다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주요element의갯수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseStat</t>
-  </si>
-  <si>
-    <t>검술전문가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배울시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불법사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음법사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바위법사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도+20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가소모품1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불원소레벨+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음원소레벨+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바위원소레벨+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불원소시작레벨+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음원소시작레벨+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바위원소시작레벨+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랭크보너스+15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원소시작레벨+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도+100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동시연구+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동시연구+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가명성100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기자원+4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격증가율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구속도2배</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(prce계수를곱하는걸로)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11000%(density1기준)
+첫스테이지의 주요기술density는 4~5 인걸 감안하면 쓰레기. 나중에는 density가 몇십몁백이므로 더쓰레기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4078,12 +4083,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.000000000_ "/>
+    <numFmt numFmtId="187" formatCode="0_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4189,6 +4195,14 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -4651,7 +4665,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4896,6 +4910,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5987,8 +6004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG62"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -6021,7 +6038,7 @@
         <v>297</v>
       </c>
       <c r="AE1" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -6044,10 +6061,10 @@
       </c>
       <c r="W2" s="12"/>
       <c r="AE2" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="AF2" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="AG2" t="s">
         <v>300</v>
@@ -8093,8 +8110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="J2:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8107,70 +8124,70 @@
   <sheetData>
     <row r="2" spans="10:16">
       <c r="K2" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
       <c r="L2" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="M2" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="N2" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
     </row>
     <row r="3" spans="10:16">
       <c r="J3" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="K3" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="L3" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="M3" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="P3" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" spans="10:16">
       <c r="J4" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
       <c r="K4" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="L4" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="M4" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="N4">
         <v>5</v>
       </c>
       <c r="P4" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
     </row>
     <row r="5" spans="10:16">
       <c r="J5" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="K5" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="L5" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="M5" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
       <c r="N5">
         <v>5</v>
@@ -8178,16 +8195,16 @@
     </row>
     <row r="6" spans="10:16">
       <c r="J6" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="K6" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
       <c r="L6" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="M6" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="N6">
         <v>4</v>
@@ -8195,16 +8212,16 @@
     </row>
     <row r="7" spans="10:16">
       <c r="J7" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="K7" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="L7" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="M7" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="N7">
         <v>4</v>
@@ -8212,16 +8229,16 @@
     </row>
     <row r="8" spans="10:16">
       <c r="J8" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="K8" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="L8" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="M8" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="N8">
         <v>4</v>
@@ -8229,16 +8246,16 @@
     </row>
     <row r="9" spans="10:16">
       <c r="J9" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
       <c r="K9" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="L9" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="M9" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -8249,13 +8266,13 @@
         <v>345</v>
       </c>
       <c r="K10" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="L10" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="M10" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
       <c r="N10">
         <v>4</v>
@@ -8273,7 +8290,7 @@
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9110,7 +9127,7 @@
   <dimension ref="A2:Y48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9827,8 +9844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9987,7 +10004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -10013,7 +10030,7 @@
         <v>469</v>
       </c>
       <c r="L1" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -10542,10 +10559,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10566,7 +10583,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="H1" s="66" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I1" s="66"/>
     </row>
@@ -10591,27 +10608,27 @@
         <v>552</v>
       </c>
       <c r="F3" t="s">
+        <v>587</v>
+      </c>
+      <c r="G3" t="s">
+        <v>592</v>
+      </c>
+      <c r="H3" s="66" t="s">
         <v>593</v>
       </c>
-      <c r="G3" t="s">
-        <v>603</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>604</v>
-      </c>
       <c r="I3" s="66" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="J3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="48" customHeight="1" thickBot="1">
       <c r="A4" s="69" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B4" t="s">
         <v>548</v>
@@ -10620,34 +10637,33 @@
         <v>549</v>
       </c>
       <c r="D4" t="s">
-        <v>553</v>
+        <v>941</v>
       </c>
       <c r="E4" t="s">
-        <v>556</v>
+        <v>942</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>592</v>
+        <v>946</v>
       </c>
       <c r="G4" s="65">
-        <v>42.25</v>
-      </c>
-      <c r="H4" s="36">
-        <f>4225%*3</f>
-        <v>126.75</v>
+        <v>27</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>948</v>
       </c>
       <c r="I4" s="67" t="s">
-        <v>611</v>
+        <v>952</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>923</v>
+        <v>903</v>
       </c>
       <c r="K4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="157.5" customHeight="1" thickBot="1">
       <c r="A5" s="68" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B5" t="s">
         <v>548</v>
@@ -10659,305 +10675,381 @@
         <v>551</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>607</v>
+        <v>950</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>602</v>
+        <v>945</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>606</v>
+        <v>949</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>608</v>
+        <v>947</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>612</v>
+        <v>953</v>
       </c>
       <c r="J5" s="64" t="s">
-        <v>924</v>
+        <v>904</v>
       </c>
       <c r="K5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="P5" s="64" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q5" s="64" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="R5" s="67" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="S5" s="67" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="120.75" customHeight="1" thickBot="1">
       <c r="A6" s="68" t="s">
+        <v>567</v>
+      </c>
+      <c r="B6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C6" t="s">
         <v>569</v>
-      </c>
-      <c r="B6" t="s">
-        <v>555</v>
-      </c>
-      <c r="C6" t="s">
-        <v>574</v>
       </c>
       <c r="D6" t="s">
         <v>551</v>
       </c>
       <c r="E6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>609</v>
+        <v>954</v>
       </c>
       <c r="G6" s="65">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="H6" s="66" t="s">
-        <v>610</v>
+        <v>951</v>
       </c>
       <c r="I6" s="67" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="J6" t="s">
-        <v>922</v>
+        <v>902</v>
       </c>
       <c r="K6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="52.5" customHeight="1" thickBot="1">
       <c r="A7" s="68" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D7" t="s">
         <v>551</v>
       </c>
       <c r="E7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>596</v>
+        <v>955</v>
       </c>
       <c r="G7" s="64"/>
       <c r="H7" s="66" t="s">
-        <v>594</v>
+        <v>956</v>
       </c>
       <c r="I7" s="66" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="J7" t="s">
         <v>534</v>
       </c>
       <c r="K7" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="171.75" customHeight="1" thickBot="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="189.75" customHeight="1" thickBot="1">
       <c r="A8" s="70"/>
       <c r="B8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>597</v>
+        <v>943</v>
       </c>
       <c r="D8" t="s">
         <v>551</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>598</v>
+        <v>957</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>605</v>
+        <v>958</v>
       </c>
       <c r="H8" s="67" t="s">
-        <v>572</v>
+        <v>959</v>
       </c>
       <c r="I8" s="67" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="J8" s="64" t="s">
         <v>534</v>
       </c>
       <c r="K8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="71.25" customHeight="1" thickBot="1">
       <c r="A9" s="70"/>
       <c r="B9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>570</v>
+        <v>944</v>
       </c>
       <c r="D9" t="s">
         <v>551</v>
       </c>
       <c r="E9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>567</v>
+        <v>960</v>
       </c>
       <c r="G9" s="64"/>
       <c r="H9" s="66" t="s">
-        <v>573</v>
+        <v>961</v>
       </c>
       <c r="I9" s="66" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="J9" t="s">
         <v>534</v>
       </c>
       <c r="K9" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="77.25" customHeight="1" thickBot="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="97.5" customHeight="1" thickBot="1">
       <c r="A10" s="71" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B10" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D10" t="s">
         <v>551</v>
       </c>
       <c r="E10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>613</v>
+        <v>962</v>
       </c>
       <c r="G10" s="64"/>
       <c r="H10" s="67" t="s">
-        <v>925</v>
+        <v>963</v>
       </c>
       <c r="I10" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="J10" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="K10" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="48.75" customHeight="1">
       <c r="B11" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D11" t="s">
         <v>551</v>
       </c>
       <c r="E11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="G12" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="G13" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="G14" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="G15" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
       <c r="C19" t="s">
         <v>542</v>
       </c>
       <c r="F19" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
       <c r="C20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
+    <row r="21" spans="3:9">
       <c r="C21" t="s">
         <v>544</v>
       </c>
       <c r="F21" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
       <c r="C22" t="s">
         <v>539</v>
       </c>
       <c r="F22" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
       <c r="C23" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
+    <row r="24" spans="3:9">
       <c r="C24" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="25" spans="3:6">
+      <c r="H24" s="36">
+        <v>27</v>
+      </c>
+      <c r="I24" s="82">
+        <f>H24/110%</f>
+        <v>24.545454545454543</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
       <c r="C25" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6">
+        <v>578</v>
+      </c>
+      <c r="H25" s="36">
+        <v>16.5</v>
+      </c>
+      <c r="I25" s="82">
+        <f t="shared" ref="I25:I33" si="0">H25/110%</f>
+        <v>14.999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="H26" s="36">
+        <v>25.2</v>
+      </c>
+      <c r="I26" s="82">
+        <f t="shared" si="0"/>
+        <v>22.909090909090907</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="H27" s="36">
+        <v>50</v>
+      </c>
+      <c r="I27" s="82">
+        <f t="shared" si="0"/>
+        <v>45.454545454545453</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
       <c r="C28" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6">
+        <v>573</v>
+      </c>
+      <c r="H28" s="36">
+        <v>16.8</v>
+      </c>
+      <c r="I28" s="82">
+        <f t="shared" si="0"/>
+        <v>15.272727272727272</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
       <c r="C29" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6">
+        <v>574</v>
+      </c>
+      <c r="H29" s="36">
+        <v>24</v>
+      </c>
+      <c r="I29" s="82">
+        <f t="shared" si="0"/>
+        <v>21.818181818181817</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
       <c r="C30" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6">
+        <v>571</v>
+      </c>
+      <c r="H30" s="36">
+        <v>50.4</v>
+      </c>
+      <c r="I30" s="82">
+        <f t="shared" si="0"/>
+        <v>45.818181818181813</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
       <c r="C31" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6">
+        <v>572</v>
+      </c>
+      <c r="H31" s="36">
+        <v>16.5</v>
+      </c>
+      <c r="I31" s="82">
+        <f t="shared" si="0"/>
+        <v>14.999999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
       <c r="C32" t="s">
-        <v>580</v>
+        <v>575</v>
+      </c>
+      <c r="H32" s="36">
+        <v>25.2</v>
+      </c>
+      <c r="I32" s="82">
+        <f t="shared" si="0"/>
+        <v>22.909090909090907</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9">
+      <c r="H33" s="36">
+        <v>49.5</v>
+      </c>
+      <c r="I33" s="82">
+        <f t="shared" si="0"/>
+        <v>44.999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -11567,29 +11659,29 @@
   <dimension ref="B1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="2:13" ht="17.25" thickBot="1">
       <c r="E1" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="2:13">
       <c r="E2" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="9"/>
@@ -11597,11 +11689,11 @@
     <row r="3" spans="2:13" ht="17.25" thickBot="1">
       <c r="F3" s="14"/>
       <c r="G3" s="15" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -11609,14 +11701,14 @@
     <row r="4" spans="2:13" ht="17.25" thickBot="1"/>
     <row r="5" spans="2:13">
       <c r="F5" s="8" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="9"/>
@@ -11631,156 +11723,156 @@
     </row>
     <row r="7" spans="2:13" ht="17.25" thickBot="1">
       <c r="B7" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="E8" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="9" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="M8" s="72" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="17.25" thickBot="1">
       <c r="B9" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="15" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="16" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="M9" s="73" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="17.25" thickBot="1">
       <c r="B10" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="G10" s="19"/>
       <c r="M10" s="74" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="17.25" thickBot="1">
       <c r="B11" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="E11" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="76" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="H11" s="77"/>
       <c r="I11" s="77" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="J11" s="77"/>
       <c r="K11" s="5" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="M11" s="73" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="17.25" thickBot="1">
       <c r="B12" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="M12" s="74" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="17.25" thickBot="1">
       <c r="E13" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="77" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="H13" s="77"/>
       <c r="I13" s="77" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="J13" s="77"/>
       <c r="K13" s="5" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="M13" s="73" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" t="s">
+        <v>623</v>
+      </c>
+      <c r="M14" s="74" t="s">
         <v>643</v>
-      </c>
-      <c r="M14" s="74" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" t="s">
+        <v>624</v>
+      </c>
+      <c r="M15" s="73" t="s">
         <v>644</v>
-      </c>
-      <c r="M15" s="73" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="M16" s="75" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="17.25" thickBot="1"/>
     <row r="19" spans="2:11">
       <c r="C19" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="E19" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="9" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="17.25" thickBot="1">
@@ -11788,7 +11880,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>
@@ -11796,85 +11888,85 @@
     <row r="22" spans="2:11" ht="17.25" thickBot="1"/>
     <row r="23" spans="2:11">
       <c r="F23" s="8" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="2:11" ht="17.25" thickBot="1">
       <c r="C24" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="16"/>
     </row>
     <row r="25" spans="2:11">
       <c r="C25" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="C26" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="C30" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="C32" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -11888,7 +11980,7 @@
   <dimension ref="A1:AI95"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+      <selection activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11901,37 +11993,37 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1" thickBot="1">
       <c r="B1" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="D1" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="G1" s="64"/>
       <c r="I1" s="64" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="J1" s="64"/>
       <c r="K1" s="64" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="L1" s="64" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="M1" s="64"/>
       <c r="O1" s="64" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="P1" s="64" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="Q1" s="64" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="R1" s="64" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="T1" s="64"/>
     </row>
@@ -11940,124 +12032,124 @@
         <v>347</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="D2" s="77" t="s">
+        <v>695</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>748</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>768</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>765</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="J2" s="77" t="s">
+        <v>706</v>
+      </c>
+      <c r="K2" s="77" t="s">
+        <v>716</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="M2" t="s">
+        <v>705</v>
+      </c>
+      <c r="N2" t="s">
         <v>715</v>
       </c>
-      <c r="E2" s="77" t="s">
-        <v>768</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>788</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="H2" s="77" t="s">
-        <v>785</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="J2" s="77" t="s">
-        <v>726</v>
-      </c>
-      <c r="K2" s="77" t="s">
-        <v>736</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="M2" t="s">
-        <v>725</v>
-      </c>
-      <c r="N2" t="s">
-        <v>735</v>
-      </c>
       <c r="O2" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="P2" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="Q2" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="R2" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="B3" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="C3" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="D3" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="E3" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="F3" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="H3" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="I3" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="K3" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="Q3" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="B4" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="C4" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="D4" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="E4" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="F4" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="H4" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="I4" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="B5" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="D5" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="E5" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="F5" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="H5" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="I5" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -12274,7 +12366,7 @@
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1">
       <c r="B11" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:L11" si="0">SUM(C7:C10)</f>
@@ -12327,37 +12419,37 @@
     </row>
     <row r="12" spans="1:22" ht="109.5" customHeight="1">
       <c r="B12" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="D12" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="G12" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="J12" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="K12" s="64" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="L12" s="64" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="N12" s="64" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -12365,381 +12457,381 @@
         <v>337</v>
       </c>
       <c r="C13" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="D13" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="E13" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="F13" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="G13" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="H13" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="I13" t="s">
+        <v>702</v>
+      </c>
+      <c r="J13" t="s">
+        <v>708</v>
+      </c>
+      <c r="K13" t="s">
         <v>722</v>
       </c>
-      <c r="J13" t="s">
-        <v>728</v>
-      </c>
-      <c r="K13" t="s">
-        <v>742</v>
-      </c>
       <c r="L13" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="C14" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="D14" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="E14" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="F14" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="G14" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="H14" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="I14" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="J14" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="K14" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="L14" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="C15" t="s">
+        <v>727</v>
+      </c>
+      <c r="D15" t="s">
+        <v>699</v>
+      </c>
+      <c r="E15" t="s">
+        <v>762</v>
+      </c>
+      <c r="F15" t="s">
         <v>747</v>
       </c>
-      <c r="D15" t="s">
-        <v>719</v>
-      </c>
-      <c r="E15" t="s">
-        <v>782</v>
-      </c>
-      <c r="F15" t="s">
-        <v>767</v>
-      </c>
       <c r="G15" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="H15" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="I15" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="J15" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="K15" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="L15" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="B16" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="C16" t="s">
+        <v>729</v>
+      </c>
+      <c r="D16" t="s">
+        <v>701</v>
+      </c>
+      <c r="E16" t="s">
+        <v>763</v>
+      </c>
+      <c r="F16" t="s">
+        <v>752</v>
+      </c>
+      <c r="G16" t="s">
+        <v>775</v>
+      </c>
+      <c r="H16" t="s">
         <v>749</v>
       </c>
-      <c r="D16" t="s">
-        <v>721</v>
-      </c>
-      <c r="E16" t="s">
-        <v>783</v>
-      </c>
-      <c r="F16" t="s">
-        <v>772</v>
-      </c>
-      <c r="G16" t="s">
-        <v>795</v>
-      </c>
-      <c r="H16" t="s">
-        <v>769</v>
-      </c>
       <c r="I16" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="J16" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="K16" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="L16" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
     </row>
     <row r="17" spans="2:25">
       <c r="B17" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="C17" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="D17" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="E17" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="F17" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="G17" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="H17" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="I17" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="J17" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="K17" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="L17" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="N17" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="N18" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="O18" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="P18" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
     </row>
     <row r="19" spans="2:25">
       <c r="B19" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
     </row>
     <row r="20" spans="2:25">
       <c r="B20" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="2:25">
       <c r="B21" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="2:25" ht="147" customHeight="1">
       <c r="B23" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="C23" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="G23" s="64" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="H23" s="64" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
       <c r="L23" s="64" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="2:25">
       <c r="B24" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="O24" s="42"/>
       <c r="P24" s="80"/>
       <c r="R24" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
     </row>
     <row r="25" spans="2:25">
       <c r="B25" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="K25" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="O25" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="P25" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="M26" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
     </row>
     <row r="27" spans="2:25">
       <c r="B27" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="K27" s="79" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="L27" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="N27" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="R27" s="80" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
     </row>
     <row r="28" spans="2:25">
       <c r="B28" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="K28" s="79" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="L28" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="R28" t="s">
-        <v>917</v>
+        <v>897</v>
       </c>
     </row>
     <row r="29" spans="2:25">
       <c r="B29" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="G29" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="K29" s="79" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="L29" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="X29" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
       <c r="Y29" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
     </row>
     <row r="30" spans="2:25">
       <c r="B30" t="s">
+        <v>675</v>
+      </c>
+      <c r="G30" t="s">
+        <v>780</v>
+      </c>
+      <c r="K30" s="79" t="s">
+        <v>866</v>
+      </c>
+      <c r="L30" t="s">
+        <v>885</v>
+      </c>
+      <c r="M30" s="42" t="s">
+        <v>756</v>
+      </c>
+      <c r="N30" s="42" t="s">
         <v>695</v>
       </c>
-      <c r="G30" t="s">
-        <v>800</v>
-      </c>
-      <c r="K30" s="79" t="s">
-        <v>886</v>
-      </c>
-      <c r="L30" t="s">
-        <v>905</v>
-      </c>
-      <c r="M30" s="42" t="s">
-        <v>776</v>
-      </c>
-      <c r="N30" s="42" t="s">
-        <v>715</v>
-      </c>
       <c r="O30" s="80" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
       <c r="P30" s="80" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="R30" s="80" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="W30" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
     </row>
     <row r="31" spans="2:25">
       <c r="B31" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="G31" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="M31" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="N31" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="O31" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="P31" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
       <c r="R31" t="s">
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="V31" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="W31">
         <v>1</v>
@@ -12747,10 +12839,10 @@
     </row>
     <row r="32" spans="2:25">
       <c r="B32" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="V32" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="W32">
         <v>1</v>
@@ -12758,19 +12850,19 @@
     </row>
     <row r="33" spans="1:25">
       <c r="B33" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="G33" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="O33" s="80" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="R33" s="42" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="V33" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="W33">
         <v>1</v>
@@ -12778,16 +12870,16 @@
     </row>
     <row r="34" spans="1:25">
       <c r="B34" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="O34" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
       <c r="R34" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="V34" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="W34">
         <v>1</v>
@@ -12795,10 +12887,10 @@
     </row>
     <row r="35" spans="1:25">
       <c r="B35" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="H35" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -12811,18 +12903,18 @@
         <v>4.25</v>
       </c>
       <c r="R35" s="42" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="B36" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="G36" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="H36" s="78" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="I36">
         <v>3.25</v>
@@ -12840,33 +12932,33 @@
         <v>1.5352941176470587</v>
       </c>
       <c r="R36" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="V36" t="s">
-        <v>873</v>
+        <v>853</v>
       </c>
       <c r="X36" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="Y36" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="B37" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="N37" s="42" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="O37" s="80" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="P37" s="42" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
       <c r="V37" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="W37">
         <v>3</v>
@@ -12880,7 +12972,7 @@
     </row>
     <row r="38" spans="1:25">
       <c r="H38" s="42" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -12894,16 +12986,16 @@
         <v>4.25</v>
       </c>
       <c r="N38" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="O38" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
       <c r="P38" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="V38" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="W38">
         <v>1</v>
@@ -12911,7 +13003,7 @@
     </row>
     <row r="39" spans="1:25">
       <c r="H39" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="I39">
         <f>I36</f>
@@ -12930,10 +13022,10 @@
         <v>1.5352941176470589</v>
       </c>
       <c r="N39" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="V39" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="W39">
         <v>1</v>
@@ -12941,13 +13033,13 @@
     </row>
     <row r="40" spans="1:25">
       <c r="O40" s="42" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
       <c r="P40" s="80" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
       <c r="V40" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="W40">
         <v>1</v>
@@ -12955,13 +13047,13 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="O41" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="P41" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -12977,7 +13069,7 @@
         <v>279.40298507462688</v>
       </c>
       <c r="H42" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -12990,13 +13082,13 @@
         <v>5.55</v>
       </c>
       <c r="V42" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="X42" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="Y42" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -13010,10 +13102,10 @@
         <v>312</v>
       </c>
       <c r="G43" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="H43" s="78" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="I43">
         <v>4.55</v>
@@ -13031,7 +13123,7 @@
         <v>1.5738738738738738</v>
       </c>
       <c r="V43" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="W43">
         <v>1</v>
@@ -13057,19 +13149,19 @@
         <v>4.6567164179104479</v>
       </c>
       <c r="N44" s="42" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="O44" s="80" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
       <c r="P44" s="80" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
       <c r="R44" s="80" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="V44" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="W44">
         <v>1</v>
@@ -13077,7 +13169,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="H45" s="42" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -13091,19 +13183,19 @@
         <v>5.55</v>
       </c>
       <c r="N45" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="O45" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="P45" t="s">
-        <v>915</v>
+        <v>895</v>
       </c>
       <c r="R45" t="s">
-        <v>917</v>
+        <v>897</v>
       </c>
       <c r="V45" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="W45">
         <v>1</v>
@@ -13127,7 +13219,7 @@
         <v>1.5738738738738738</v>
       </c>
       <c r="V46" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="W46">
         <v>1</v>
@@ -13135,12 +13227,12 @@
     </row>
     <row r="47" spans="1:25">
       <c r="O47" s="80" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="H48" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -13153,18 +13245,18 @@
         <v>7.08</v>
       </c>
       <c r="O48" t="s">
-        <v>919</v>
+        <v>899</v>
       </c>
       <c r="R48" s="80" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
     </row>
     <row r="49" spans="1:35">
       <c r="G49" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="H49" s="78" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="I49">
         <v>6.08</v>
@@ -13182,23 +13274,23 @@
         <v>1.6011299435028248</v>
       </c>
       <c r="R49" t="s">
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="V49" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="W49" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
     </row>
     <row r="50" spans="1:35">
       <c r="W50" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
     </row>
     <row r="51" spans="1:35">
       <c r="H51" s="42" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -13232,15 +13324,15 @@
     </row>
     <row r="53" spans="1:35">
       <c r="V53" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
       <c r="H54" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -13253,30 +13345,30 @@
         <v>8.85</v>
       </c>
       <c r="W54" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="X54" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="Y54" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="Z54" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="AA54" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="AB54" t="s">
-        <v>921</v>
+        <v>901</v>
       </c>
     </row>
     <row r="55" spans="1:35">
       <c r="G55" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="H55" s="78" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="I55">
         <v>7.85</v>
@@ -13294,17 +13386,17 @@
         <v>1.6209039548022599</v>
       </c>
       <c r="Q55" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="S55" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="U55">
         <f>SUM(W55)</f>
         <v>1</v>
       </c>
       <c r="V55" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="W55">
         <v>1</v>
@@ -13329,13 +13421,13 @@
         <v>1</v>
       </c>
       <c r="AD55" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="AG55" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="AI55" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
     </row>
     <row r="56" spans="1:35">
@@ -13356,7 +13448,7 @@
         <v>2.0249999999999999</v>
       </c>
       <c r="V56" s="72" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="W56">
         <v>1.0249999999999999</v>
@@ -13378,15 +13470,15 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="AD56" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="AI56" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
     </row>
     <row r="57" spans="1:35">
       <c r="H57" s="42" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -13419,7 +13511,7 @@
         <v>3.0999999999999996</v>
       </c>
       <c r="V57" s="73" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="W57">
         <v>1.075</v>
@@ -13441,10 +13533,10 @@
         <v>1.075</v>
       </c>
       <c r="AD57" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="AI57" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
     </row>
     <row r="58" spans="1:35">
@@ -13478,7 +13570,7 @@
         <v>4.25</v>
       </c>
       <c r="V58" s="74" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="W58">
         <v>1.1499999999999999</v>
@@ -13500,10 +13592,10 @@
         <v>5.75</v>
       </c>
       <c r="AD58" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="AI58" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
     </row>
     <row r="59" spans="1:35">
@@ -13518,7 +13610,7 @@
         <v>5.55</v>
       </c>
       <c r="V59" s="73" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="W59">
         <v>1.3</v>
@@ -13545,20 +13637,20 @@
     </row>
     <row r="60" spans="1:35">
       <c r="G60" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
       <c r="H60" t="s">
-        <v>833</v>
+        <v>813</v>
       </c>
       <c r="I60" t="s">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="U60">
         <f>SUM(W$55:W60)</f>
         <v>7.0749999999999993</v>
       </c>
       <c r="V60" s="74" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="W60">
         <v>1.5249999999999999</v>
@@ -13582,23 +13674,23 @@
     </row>
     <row r="61" spans="1:35">
       <c r="G61" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="H61" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="I61" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="K61" s="72" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="U61">
         <f>SUM(W$55:W61)</f>
         <v>8.85</v>
       </c>
       <c r="V61" s="73" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="W61">
         <v>1.7749999999999999</v>
@@ -13622,13 +13714,13 @@
     </row>
     <row r="62" spans="1:35">
       <c r="H62" t="s">
-        <v>835</v>
+        <v>815</v>
       </c>
       <c r="I62" t="s">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="K62" s="73" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="P62" s="36">
         <f>R62*9</f>
@@ -13645,7 +13737,7 @@
         <v>10.899999999999999</v>
       </c>
       <c r="V62" s="74" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="W62">
         <v>2.0499999999999998</v>
@@ -13672,7 +13764,7 @@
     </row>
     <row r="63" spans="1:35">
       <c r="K63" s="74" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -13699,7 +13791,7 @@
         <v>13.2</v>
       </c>
       <c r="V63" s="73" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="W63">
         <v>2.2999999999999998</v>
@@ -13723,16 +13815,16 @@
     </row>
     <row r="64" spans="1:35">
       <c r="G64" t="s">
-        <v>833</v>
+        <v>813</v>
       </c>
       <c r="H64" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="I64" t="s">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="K64" s="73" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -13748,7 +13840,7 @@
         <v>15.824999999999999</v>
       </c>
       <c r="V64" s="75" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="W64">
         <v>2.625</v>
@@ -13772,16 +13864,16 @@
     </row>
     <row r="65" spans="7:27">
       <c r="G65" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="H65" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="I65" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="K65" s="74" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -13798,13 +13890,13 @@
     </row>
     <row r="66" spans="7:27" ht="17.25" thickBot="1">
       <c r="H66" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
       <c r="I66" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
       <c r="K66" s="73" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -13821,7 +13913,7 @@
     </row>
     <row r="67" spans="7:27" ht="17.25" thickBot="1">
       <c r="K67" s="74" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -13833,7 +13925,7 @@
         <v>1</v>
       </c>
       <c r="V67" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
       <c r="W67" s="2">
         <f>SUM(W55:W64)</f>
@@ -13858,7 +13950,7 @@
     </row>
     <row r="68" spans="7:27">
       <c r="K68" s="73" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -13876,7 +13968,7 @@
     </row>
     <row r="69" spans="7:27">
       <c r="K69" s="75" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -13964,141 +14056,141 @@
     </row>
     <row r="77" spans="7:27">
       <c r="P77" s="42" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="Q77" s="42" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
     </row>
     <row r="78" spans="7:27">
       <c r="P78" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="Q78" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
     </row>
     <row r="79" spans="7:27">
       <c r="Q79" s="42" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
     </row>
     <row r="80" spans="7:27">
       <c r="Q80" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
     </row>
     <row r="81" spans="14:17">
       <c r="P81" s="42" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="Q81" s="42" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
     </row>
     <row r="82" spans="14:17">
       <c r="P82" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="Q82" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
     </row>
     <row r="83" spans="14:17">
       <c r="Q83" s="42" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
     </row>
     <row r="84" spans="14:17">
       <c r="Q84" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
     </row>
     <row r="85" spans="14:17">
       <c r="O85" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
     </row>
     <row r="86" spans="14:17">
       <c r="O86" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
     </row>
     <row r="88" spans="14:17">
       <c r="N88" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="O88" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="P88" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="Q88" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
     </row>
     <row r="89" spans="14:17">
       <c r="N89" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="O89" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="P89" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="Q89" t="s">
-        <v>826</v>
+        <v>806</v>
       </c>
     </row>
     <row r="90" spans="14:17">
       <c r="N90" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
     </row>
     <row r="91" spans="14:17">
       <c r="O91" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="P91" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
       <c r="Q91" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
     </row>
     <row r="92" spans="14:17">
       <c r="O92" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="P92" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
       <c r="Q92" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
     </row>
     <row r="94" spans="14:17">
       <c r="O94" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="P94" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="Q94" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
     </row>
     <row r="95" spans="14:17">
       <c r="O95" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="P95" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="Q95" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
